--- a/LubanTools/DesignerConfigs/Datas/任务表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/任务表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21555" windowHeight="11670"/>
+    <workbookView windowWidth="28800" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,25 +165,25 @@
     <t>奖励数量</t>
   </si>
   <si>
-    <t>打开*个动物蛋</t>
-  </si>
-  <si>
-    <t>饲养*只动物</t>
-  </si>
-  <si>
-    <t>出售*只动物</t>
-  </si>
-  <si>
-    <t>通过出售动物获得*金币</t>
-  </si>
-  <si>
-    <t>饲养*只优秀品质的动物</t>
-  </si>
-  <si>
-    <t>提升等级至*级</t>
-  </si>
-  <si>
-    <t>进行*次冒险</t>
+    <t>打开{0}个动物蛋</t>
+  </si>
+  <si>
+    <t>饲养{0}只动物</t>
+  </si>
+  <si>
+    <t>出售{0}只动物</t>
+  </si>
+  <si>
+    <t>通过出售动物获得{0}金币</t>
+  </si>
+  <si>
+    <t>饲养{0}只优秀品质的动物</t>
+  </si>
+  <si>
+    <t>提升等级至{0}级</t>
+  </si>
+  <si>
+    <t>进行{0}次冒险</t>
   </si>
   <si>
     <t>通过冒险1-1</t>
@@ -192,7 +192,7 @@
     <t>通过冒险1-2</t>
   </si>
   <si>
-    <t>累计购买*次动物蛋升级</t>
+    <t>累计购买{0}次动物蛋升级</t>
   </si>
   <si>
     <t>通过冒险1-3</t>
@@ -217,7 +217,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,13 +235,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -402,7 +395,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,12 +434,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,12 +483,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,48 +715,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,110 +769,104 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,7 +1220,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1402,23 +1380,23 @@
       <c r="C7" s="3">
         <v>101003</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>1</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
         <v>1</v>
       </c>
-      <c r="I7" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J7" s="4">
+      <c r="I7" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J7" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1429,23 +1407,23 @@
       <c r="C8" s="3">
         <v>102001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>3</v>
       </c>
-      <c r="I8" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J8" s="4">
+      <c r="I8" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J8" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1456,23 +1434,23 @@
       <c r="C9" s="3">
         <v>103001</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>5</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J9" s="4">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J9" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1483,23 +1461,23 @@
       <c r="C10" s="3">
         <v>104001</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J10" s="4">
+      <c r="I10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J10" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1510,23 +1488,23 @@
       <c r="C11" s="3">
         <v>105001</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4">
-        <v>5</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J11" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1537,23 +1515,23 @@
       <c r="C12" s="3">
         <v>101005</v>
       </c>
-      <c r="D12" s="4">
-        <v>5</v>
-      </c>
-      <c r="E12" s="4">
-        <v>5</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
         <v>1</v>
       </c>
-      <c r="I12" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="I12" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J12" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1561,53 +1539,53 @@
       <c r="B13" s="3">
         <v>101005</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>105002</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>1</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4">
-        <v>5</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>5</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J13" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>105002</v>
       </c>
       <c r="C14" s="3">
         <v>106001</v>
       </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="I14" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1618,23 +1596,23 @@
       <c r="C15" s="3">
         <v>107001</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>6</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>3</v>
       </c>
-      <c r="I15" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I15" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J15" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1645,23 +1623,23 @@
       <c r="C16" s="3">
         <v>108001</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="3">
         <v>7</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>7</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>1</v>
       </c>
-      <c r="I16" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="I16" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J16" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1672,23 +1650,23 @@
       <c r="C17" s="3">
         <v>106002</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="3">
         <v>8</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>8</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>1</v>
       </c>
-      <c r="I17" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J17" s="4">
+      <c r="I17" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J17" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1699,23 +1677,23 @@
       <c r="C18" s="3">
         <v>108002</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="3">
         <v>6</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>6</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>4</v>
       </c>
-      <c r="I18" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I18" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J18" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1726,23 +1704,23 @@
       <c r="C19" s="3">
         <v>109001</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>8</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>8</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>1</v>
       </c>
-      <c r="I19" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="I19" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J19" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1753,23 +1731,23 @@
       <c r="C20" s="3">
         <v>108003</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="3">
         <v>9</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>9</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
         <v>1</v>
       </c>
-      <c r="I20" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J20" s="4">
+      <c r="I20" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J20" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1780,23 +1758,23 @@
       <c r="C21" s="3">
         <v>106003</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>8</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>8</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>1</v>
       </c>
-      <c r="I21" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="I21" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J21" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1807,23 +1785,23 @@
       <c r="C22" s="3">
         <v>108004</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>6</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4">
-        <v>5</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J22" s="4">
+      <c r="H22" s="3">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J22" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1834,23 +1812,23 @@
       <c r="C23" s="3">
         <v>105003</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>8</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>8</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J23" s="4">
+      <c r="I23" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J23" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1861,23 +1839,23 @@
       <c r="C24" s="3">
         <v>108005</v>
       </c>
-      <c r="D24" s="4">
-        <v>5</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="D24" s="3">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3">
         <v>5</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>3</v>
       </c>
-      <c r="I24" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J24" s="4">
+      <c r="I24" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J24" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1888,23 +1866,23 @@
       <c r="C25" s="3">
         <v>104002</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>8</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>8</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>1</v>
       </c>
-      <c r="I25" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="I25" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J25" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1915,23 +1893,23 @@
       <c r="C26" s="3">
         <v>109002</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G26" s="3"/>
-      <c r="H26" s="4">
+      <c r="H26" s="3">
         <v>50</v>
       </c>
-      <c r="I26" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J26" s="4">
+      <c r="I26" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J26" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1942,23 +1920,23 @@
       <c r="C27" s="3">
         <v>108006</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>9</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>9</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4">
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
         <v>2</v>
       </c>
-      <c r="I27" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J27" s="4">
+      <c r="I27" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J27" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1969,23 +1947,23 @@
       <c r="C28" s="3">
         <v>105004</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>8</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>8</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>1</v>
       </c>
-      <c r="I28" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J28" s="4">
+      <c r="I28" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J28" s="3">
         <v>5</v>
       </c>
     </row>
@@ -1996,23 +1974,23 @@
       <c r="C29" s="3">
         <v>106004</v>
       </c>
-      <c r="D29" s="4">
-        <v>5</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3">
         <v>5</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="4">
+      <c r="H29" s="3">
         <v>4</v>
       </c>
-      <c r="I29" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J29" s="4">
+      <c r="I29" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J29" s="3">
         <v>5</v>
       </c>
     </row>
@@ -2020,24 +1998,24 @@
       <c r="B30" s="3">
         <v>106004</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3">
         <v>6</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>6</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4">
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
         <v>9</v>
       </c>
-      <c r="I30" s="4">
-        <v>1001</v>
-      </c>
-      <c r="J30" s="4">
+      <c r="I30" s="3">
+        <v>1001</v>
+      </c>
+      <c r="J30" s="3">
         <v>5</v>
       </c>
     </row>

--- a/LubanTools/DesignerConfigs/Datas/任务表.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/任务表.xlsx
@@ -1220,7 +1220,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
